--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -1,46 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,71 +420,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Начало маршрута</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Конец маршрута</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Klg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RostovSki</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2010/4/10/12/35</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Klg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RostovSki</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2010/4/10/12/35</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Klg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RostovSkiRaen</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2010/4/10/12/35</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -1,37 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Начало маршрута</t>
+  </si>
+  <si>
+    <t>Конец маршрута</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Klg</t>
+  </si>
+  <si>
+    <t>RostovSki</t>
+  </si>
+  <si>
+    <t>2010/4/10/12/35</t>
+  </si>
+  <si>
+    <t>RostovSkiRaen</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +83,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,122 +407,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Начало маршрута</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Конец маршрута</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Klg</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>RostovSki</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>3000</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2010/4/10/12/35</t>
-        </is>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Klg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>RostovSki</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>3000</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2010/4/10/12/35</t>
-        </is>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Klg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>RostovSkiRaen</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>3000</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2010/4/10/12/35</t>
-        </is>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komra\Desktop\Бауман\ОП\TravelMaster\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF2444-3C45-486E-9AFB-1A42D58B60EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -46,12 +47,15 @@
   </si>
   <si>
     <t>RostovSkiRaen</t>
+  </si>
+  <si>
+    <t>2010/12/10/12/35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,16 +411,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,10 +454,10 @@
         <v>3000</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -473,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -493,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komra\Desktop\Бауман\ОП\TravelMaster\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF2444-3C45-486E-9AFB-1A42D58B60EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -34,28 +33,34 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>Дата</t>
-  </si>
-  <si>
     <t>Klg</t>
   </si>
   <si>
     <t>RostovSki</t>
   </si>
   <si>
-    <t>2010/4/10/12/35</t>
-  </si>
-  <si>
     <t>RostovSkiRaen</t>
   </si>
   <si>
-    <t>2010/12/10/12/35</t>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>10:27</t>
+  </si>
+  <si>
+    <t>10:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -411,111 +417,3620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="B2">
+      <c r="E2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="1">
         <v>3000</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="1">
         <v>3000</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1"/>
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1"/>
+      <c r="I320" s="1"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1"/>
+      <c r="I321" s="1"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1"/>
+      <c r="I322" s="1"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1"/>
+      <c r="I323" s="1"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1"/>
+      <c r="I332" s="1"/>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1"/>
+      <c r="I338" s="1"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komra\Desktop\Бауман\ОП\TravelMaster\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B3D22D-7A84-4249-BE58-5588F83BF5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -56,11 +57,23 @@
   <si>
     <t>10:28</t>
   </si>
+  <si>
+    <t>Тип билета</t>
+  </si>
+  <si>
+    <t>Купе</t>
+  </si>
+  <si>
+    <t>Плацкарт</t>
+  </si>
+  <si>
+    <t>СВ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,19 +430,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -446,11 +459,13 @@
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -469,11 +484,13 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -492,16 +509,18 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -515,16 +534,18 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -538,11 +559,13 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -552,7 +575,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -562,7 +585,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -572,7 +595,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -582,7 +605,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -592,7 +615,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -602,7 +625,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -612,7 +635,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -622,7 +645,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -632,7 +655,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -642,7 +665,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -652,7 +675,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -662,7 +685,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -672,7 +695,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -682,7 +705,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -692,7 +715,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -702,7 +725,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -712,7 +735,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -722,7 +745,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -732,7 +755,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -742,7 +765,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -752,7 +775,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -762,7 +785,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -772,7 +795,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -782,7 +805,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -792,7 +815,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -802,7 +825,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -812,7 +835,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -822,7 +845,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -832,7 +855,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -842,7 +865,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -852,7 +875,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -862,7 +885,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -872,7 +895,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -882,7 +905,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -892,7 +915,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -902,7 +925,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -912,7 +935,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -922,7 +945,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -932,7 +955,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -942,7 +965,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -952,7 +975,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -962,7 +985,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -972,7 +995,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -982,7 +1005,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -992,7 +1015,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1002,7 +1025,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1012,7 +1035,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1022,7 +1045,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1032,7 +1055,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1042,7 +1065,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1052,7 +1075,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1062,7 +1085,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1072,7 +1095,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1082,7 +1105,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1092,7 +1115,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1102,7 +1125,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1112,7 +1135,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1122,7 +1145,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1132,7 +1155,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1142,7 +1165,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1152,7 +1175,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1162,7 +1185,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1172,7 +1195,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1182,7 +1205,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1192,7 +1215,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1202,7 +1225,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1212,7 +1235,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1222,7 +1245,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1232,7 +1255,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1242,7 +1265,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1252,7 +1275,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1262,7 +1285,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1272,7 +1295,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1282,7 +1305,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1292,7 +1315,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1302,7 +1325,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1312,7 +1335,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1322,7 +1345,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1332,7 +1355,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1342,7 +1365,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1352,7 +1375,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1362,7 +1385,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1372,7 +1395,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1382,7 +1405,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1392,7 +1415,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1402,7 +1425,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1412,7 +1435,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1422,7 +1445,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1432,7 +1455,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1442,7 +1465,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1452,7 +1475,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1462,7 +1485,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1472,7 +1495,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1482,7 +1505,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1492,7 +1515,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1502,7 +1525,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1512,7 +1535,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1522,7 +1545,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1532,7 +1555,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1542,7 +1565,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1552,7 +1575,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1562,7 +1585,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1572,7 +1595,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1582,7 +1605,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1592,7 +1615,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1602,7 +1625,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1612,7 +1635,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1622,7 +1645,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1632,7 +1655,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1642,7 +1665,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1652,7 +1675,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1662,7 +1685,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1672,7 +1695,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1682,7 +1705,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1692,7 +1715,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1702,7 +1725,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1712,7 +1735,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1722,7 +1745,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1732,7 +1755,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1742,7 +1765,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1752,7 +1775,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1762,7 +1785,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1772,7 +1795,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1782,7 +1805,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1792,7 +1815,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1802,7 +1825,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1812,7 +1835,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1822,7 +1845,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1832,7 +1855,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1842,7 +1865,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1852,7 +1875,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1862,7 +1885,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1872,7 +1895,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1882,7 +1905,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1892,7 +1915,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1902,7 +1925,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1912,7 +1935,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1922,7 +1945,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1932,7 +1955,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1942,7 +1965,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1952,7 +1975,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1962,7 +1985,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1972,7 +1995,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1982,7 +2005,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1992,7 +2015,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2002,7 +2025,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2012,7 +2035,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2022,7 +2045,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2032,7 +2055,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2042,7 +2065,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2052,7 +2075,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2062,7 +2085,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2072,7 +2095,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2082,7 +2105,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2092,7 +2115,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2102,7 +2125,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2112,7 +2135,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2122,7 +2145,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2132,7 +2155,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2142,7 +2165,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2152,7 +2175,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2162,7 +2185,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2172,7 +2195,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2182,7 +2205,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2192,7 +2215,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2202,7 +2225,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2212,7 +2235,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2222,7 +2245,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2232,7 +2255,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2242,7 +2265,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2252,7 +2275,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2262,7 +2285,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2272,7 +2295,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2282,7 +2305,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2292,7 +2315,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2302,7 +2325,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2312,7 +2335,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2322,7 +2345,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2332,7 +2355,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2342,7 +2365,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2352,7 +2375,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2362,7 +2385,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2372,7 +2395,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2382,7 +2405,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2392,7 +2415,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2402,7 +2425,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2412,7 +2435,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2422,7 +2445,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2432,7 +2455,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2442,7 +2465,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2452,7 +2475,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2462,7 +2485,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2472,7 +2495,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2482,7 +2505,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2492,7 +2515,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2502,7 +2525,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2512,7 +2535,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2522,7 +2545,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2532,7 +2555,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2542,7 +2565,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2552,7 +2575,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2562,7 +2585,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2572,7 +2595,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2582,7 +2605,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2592,7 +2615,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2602,7 +2625,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2612,7 +2635,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2622,7 +2645,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2632,7 +2655,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2642,7 +2665,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2652,7 +2675,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2662,7 +2685,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2672,7 +2695,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2682,7 +2705,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2692,7 +2715,7 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2702,7 +2725,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2712,7 +2735,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2722,7 +2745,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2732,7 +2755,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2742,7 +2765,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2752,7 +2775,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2762,7 +2785,7 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2772,7 +2795,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2782,7 +2805,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2792,7 +2815,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2802,7 +2825,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2812,7 +2835,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2822,7 +2845,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2832,7 +2855,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2842,7 +2865,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2852,7 +2875,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2862,7 +2885,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2872,7 +2895,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2882,7 +2905,7 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2892,7 +2915,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2902,7 +2925,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2912,7 +2935,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2922,7 +2945,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2932,7 +2955,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2942,7 +2965,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2952,7 +2975,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2962,7 +2985,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2972,7 +2995,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2982,7 +3005,7 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2992,7 +3015,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3002,7 +3025,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3012,7 +3035,7 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3022,7 +3045,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3032,7 +3055,7 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3042,7 +3065,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3052,7 +3075,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3062,7 +3085,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3072,7 +3095,7 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3082,7 +3105,7 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3092,7 +3115,7 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3102,7 +3125,7 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3112,7 +3135,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3122,7 +3145,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -3132,7 +3155,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -3142,7 +3165,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -3152,7 +3175,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3162,7 +3185,7 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3172,7 +3195,7 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3182,7 +3205,7 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3192,7 +3215,7 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3202,7 +3225,7 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3212,7 +3235,7 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -3222,7 +3245,7 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -3232,7 +3255,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -3242,7 +3265,7 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -3252,7 +3275,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -3262,7 +3285,7 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -3272,7 +3295,7 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -3282,7 +3305,7 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -3292,7 +3315,7 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -3302,7 +3325,7 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -3312,7 +3335,7 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -3322,7 +3345,7 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -3332,7 +3355,7 @@
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -3342,7 +3365,7 @@
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -3352,7 +3375,7 @@
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -3362,7 +3385,7 @@
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -3372,7 +3395,7 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -3382,7 +3405,7 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -3392,7 +3415,7 @@
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -3402,7 +3425,7 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -3412,7 +3435,7 @@
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -3422,7 +3445,7 @@
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -3432,7 +3455,7 @@
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -3442,7 +3465,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -3452,7 +3475,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -3462,7 +3485,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -3472,7 +3495,7 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -3482,7 +3505,7 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -3492,7 +3515,7 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -3502,7 +3525,7 @@
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -3512,7 +3535,7 @@
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -3522,7 +3545,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -3532,7 +3555,7 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -3542,7 +3565,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -3552,7 +3575,7 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -3562,7 +3585,7 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -3572,7 +3595,7 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -3582,7 +3605,7 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -3592,7 +3615,7 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -3602,7 +3625,7 @@
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -3612,7 +3635,7 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -3622,7 +3645,7 @@
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -3632,7 +3655,7 @@
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -3642,7 +3665,7 @@
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -3652,7 +3675,7 @@
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -3662,7 +3685,7 @@
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -3672,7 +3695,7 @@
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -3682,7 +3705,7 @@
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -3692,7 +3715,7 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -3702,7 +3725,7 @@
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -3712,7 +3735,7 @@
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -3722,7 +3745,7 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -3732,7 +3755,7 @@
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -3742,7 +3765,7 @@
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -3752,7 +3775,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -3762,7 +3785,7 @@
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -3772,7 +3795,7 @@
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -3782,7 +3805,7 @@
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -3792,7 +3815,7 @@
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -3802,7 +3825,7 @@
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -3812,7 +3835,7 @@
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -3822,7 +3845,7 @@
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -3832,7 +3855,7 @@
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -3842,7 +3865,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -3852,7 +3875,7 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -3862,7 +3885,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -3872,7 +3895,7 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -3882,7 +3905,7 @@
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -3892,7 +3915,7 @@
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -3902,7 +3925,7 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -3912,7 +3935,7 @@
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -3922,7 +3945,7 @@
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -3932,7 +3955,7 @@
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -3942,7 +3965,7 @@
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -3952,7 +3975,7 @@
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -3962,7 +3985,7 @@
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -3972,7 +3995,7 @@
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -3982,7 +4005,7 @@
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -3992,7 +4015,7 @@
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -4002,7 +4025,7 @@
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4012,7 +4035,7 @@
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -4022,7 +4045,7 @@
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\komra\Desktop\Бауман\ОП\TravelMaster\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B3D22D-7A84-4249-BE58-5588F83BF5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -57,23 +56,11 @@
   <si>
     <t>10:28</t>
   </si>
-  <si>
-    <t>Тип билета</t>
-  </si>
-  <si>
-    <t>Купе</t>
-  </si>
-  <si>
-    <t>Плацкарт</t>
-  </si>
-  <si>
-    <t>СВ</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,19 +417,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -459,13 +446,11 @@
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -484,13 +469,11 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -509,13 +492,11 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -534,13 +515,11 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -559,13 +538,11 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -575,7 +552,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -585,7 +562,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -595,7 +572,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -605,7 +582,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -615,7 +592,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -625,7 +602,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -635,7 +612,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -645,7 +622,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -655,7 +632,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -665,7 +642,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -675,7 +652,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -685,7 +662,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -695,7 +672,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -705,7 +682,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -715,7 +692,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -725,7 +702,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -735,7 +712,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -745,7 +722,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -755,7 +732,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -765,7 +742,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -775,7 +752,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -785,7 +762,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -795,7 +772,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -805,7 +782,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -815,7 +792,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -825,7 +802,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -835,7 +812,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -845,7 +822,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -855,7 +832,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -865,7 +842,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -875,7 +852,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -885,7 +862,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -895,7 +872,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -905,7 +882,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -915,7 +892,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -925,7 +902,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -935,7 +912,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -945,7 +922,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -955,7 +932,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -965,7 +942,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -975,7 +952,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -985,7 +962,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -995,7 +972,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1005,7 +982,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1015,7 +992,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1025,7 +1002,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1035,7 +1012,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1045,7 +1022,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1055,7 +1032,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1065,7 +1042,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1075,7 +1052,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1085,7 +1062,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1095,7 +1072,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1105,7 +1082,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1115,7 +1092,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1125,7 +1102,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1135,7 +1112,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1145,7 +1122,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1155,7 +1132,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1165,7 +1142,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1175,7 +1152,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1185,7 +1162,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1195,7 +1172,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1205,7 +1182,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1215,7 +1192,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1225,7 +1202,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1235,7 +1212,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1245,7 +1222,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1255,7 +1232,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1265,7 +1242,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1275,7 +1252,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1285,7 +1262,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1295,7 +1272,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1305,7 +1282,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1315,7 +1292,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1325,7 +1302,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1335,7 +1312,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1345,7 +1322,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1355,7 +1332,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1365,7 +1342,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1375,7 +1352,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1385,7 +1362,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1395,7 +1372,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1405,7 +1382,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1415,7 +1392,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1425,7 +1402,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1435,7 +1412,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1445,7 +1422,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1455,7 +1432,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1465,7 +1442,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1475,7 +1452,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1485,7 +1462,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1495,7 +1472,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1505,7 +1482,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1515,7 +1492,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1525,7 +1502,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1535,7 +1512,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1545,7 +1522,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1555,7 +1532,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1565,7 +1542,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1575,7 +1552,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1585,7 +1562,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1595,7 +1572,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1605,7 +1582,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1615,7 +1592,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1625,7 +1602,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1635,7 +1612,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1645,7 +1622,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1655,7 +1632,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1665,7 +1642,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1675,7 +1652,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1685,7 +1662,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1695,7 +1672,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1705,7 +1682,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1715,7 +1692,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1725,7 +1702,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1735,7 +1712,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1745,7 +1722,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1755,7 +1732,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1765,7 +1742,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1775,7 +1752,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1785,7 +1762,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1795,7 +1772,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1805,7 +1782,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1815,7 +1792,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1825,7 +1802,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1835,7 +1812,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1845,7 +1822,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1855,7 +1832,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1865,7 +1842,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1875,7 +1852,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1885,7 +1862,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1895,7 +1872,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1905,7 +1882,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1915,7 +1892,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1925,7 +1902,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1935,7 +1912,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1945,7 +1922,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1955,7 +1932,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1965,7 +1942,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1975,7 +1952,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1985,7 +1962,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1995,7 +1972,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2005,7 +1982,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2015,7 +1992,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2025,7 +2002,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2035,7 +2012,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2045,7 +2022,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2055,7 +2032,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2065,7 +2042,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2075,7 +2052,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2085,7 +2062,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2095,7 +2072,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2105,7 +2082,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2115,7 +2092,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2125,7 +2102,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2135,7 +2112,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2145,7 +2122,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2155,7 +2132,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2165,7 +2142,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2175,7 +2152,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2185,7 +2162,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2195,7 +2172,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2205,7 +2182,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2215,7 +2192,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2225,7 +2202,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2235,7 +2212,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2245,7 +2222,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2255,7 +2232,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2265,7 +2242,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2275,7 +2252,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2285,7 +2262,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2295,7 +2272,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2305,7 +2282,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2315,7 +2292,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2325,7 +2302,7 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2335,7 +2312,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2345,7 +2322,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2355,7 +2332,7 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2365,7 +2342,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2375,7 +2352,7 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2385,7 +2362,7 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2395,7 +2372,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2405,7 +2382,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2415,7 +2392,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2425,7 +2402,7 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2435,7 +2412,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2445,7 +2422,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2455,7 +2432,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2465,7 +2442,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2475,7 +2452,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2485,7 +2462,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2495,7 +2472,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2505,7 +2482,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2515,7 +2492,7 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2525,7 +2502,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2535,7 +2512,7 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2545,7 +2522,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2555,7 +2532,7 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2565,7 +2542,7 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2575,7 +2552,7 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2585,7 +2562,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2595,7 +2572,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2605,7 +2582,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2615,7 +2592,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2625,7 +2602,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2635,7 +2612,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2645,7 +2622,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2655,7 +2632,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2665,7 +2642,7 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2675,7 +2652,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2685,7 +2662,7 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2695,7 +2672,7 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2705,7 +2682,7 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2715,7 +2692,7 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2725,7 +2702,7 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2735,7 +2712,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2745,7 +2722,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2755,7 +2732,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2765,7 +2742,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2775,7 +2752,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2785,7 +2762,7 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2795,7 +2772,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2805,7 +2782,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2815,7 +2792,7 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2825,7 +2802,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2835,7 +2812,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2845,7 +2822,7 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2855,7 +2832,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2865,7 +2842,7 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2875,7 +2852,7 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2885,7 +2862,7 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2895,7 +2872,7 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2905,7 +2882,7 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2915,7 +2892,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2925,7 +2902,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2935,7 +2912,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2945,7 +2922,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2955,7 +2932,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2965,7 +2942,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2975,7 +2952,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2985,7 +2962,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2995,7 +2972,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -3005,7 +2982,7 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -3015,7 +2992,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -3025,7 +3002,7 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -3035,7 +3012,7 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3045,7 +3022,7 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3055,7 +3032,7 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3065,7 +3042,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3075,7 +3052,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3085,7 +3062,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3095,7 +3072,7 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3105,7 +3082,7 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3115,7 +3092,7 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3125,7 +3102,7 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3135,7 +3112,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3145,7 +3122,7 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -3155,7 +3132,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -3165,7 +3142,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -3175,7 +3152,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3185,7 +3162,7 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3195,7 +3172,7 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3205,7 +3182,7 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3215,7 +3192,7 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3225,7 +3202,7 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3235,7 +3212,7 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -3245,7 +3222,7 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -3255,7 +3232,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -3265,7 +3242,7 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -3275,7 +3252,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -3285,7 +3262,7 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -3295,7 +3272,7 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -3305,7 +3282,7 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -3315,7 +3292,7 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -3325,7 +3302,7 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -3335,7 +3312,7 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -3345,7 +3322,7 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -3355,7 +3332,7 @@
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -3365,7 +3342,7 @@
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -3375,7 +3352,7 @@
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -3385,7 +3362,7 @@
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -3395,7 +3372,7 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -3405,7 +3382,7 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -3415,7 +3392,7 @@
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -3425,7 +3402,7 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -3435,7 +3412,7 @@
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -3445,7 +3422,7 @@
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -3455,7 +3432,7 @@
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -3465,7 +3442,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -3475,7 +3452,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -3485,7 +3462,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -3495,7 +3472,7 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -3505,7 +3482,7 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -3515,7 +3492,7 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -3525,7 +3502,7 @@
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -3535,7 +3512,7 @@
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -3545,7 +3522,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -3555,7 +3532,7 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -3565,7 +3542,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -3575,7 +3552,7 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -3585,7 +3562,7 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -3595,7 +3572,7 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -3605,7 +3582,7 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -3615,7 +3592,7 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -3625,7 +3602,7 @@
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -3635,7 +3612,7 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -3645,7 +3622,7 @@
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -3655,7 +3632,7 @@
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -3665,7 +3642,7 @@
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -3675,7 +3652,7 @@
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -3685,7 +3662,7 @@
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -3695,7 +3672,7 @@
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -3705,7 +3682,7 @@
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -3715,7 +3692,7 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -3725,7 +3702,7 @@
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -3735,7 +3712,7 @@
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -3745,7 +3722,7 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -3755,7 +3732,7 @@
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -3765,7 +3742,7 @@
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -3775,7 +3752,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -3785,7 +3762,7 @@
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -3795,7 +3772,7 @@
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -3805,7 +3782,7 @@
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -3815,7 +3792,7 @@
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -3825,7 +3802,7 @@
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -3835,7 +3812,7 @@
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -3845,7 +3822,7 @@
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -3855,7 +3832,7 @@
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -3865,7 +3842,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -3875,7 +3852,7 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -3885,7 +3862,7 @@
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -3895,7 +3872,7 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -3905,7 +3882,7 @@
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -3915,7 +3892,7 @@
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -3925,7 +3902,7 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -3935,7 +3912,7 @@
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -3945,7 +3922,7 @@
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -3955,7 +3932,7 @@
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -3965,7 +3942,7 @@
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -3975,7 +3952,7 @@
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -3985,7 +3962,7 @@
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -3995,7 +3972,7 @@
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -4005,7 +3982,7 @@
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -4015,7 +3992,7 @@
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -4025,7 +4002,7 @@
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -4035,7 +4012,7 @@
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -4045,7 +4022,7 @@
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,27 +470,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Klg</t>
+          <t>dsada</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RostovSki</t>
+          <t>dsada</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3000</v>
+        <v>333</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10:25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,50 +505,58 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Klg</t>
+          <t>dsada</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RostovSki</t>
+          <t>sdasdsada</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3000</v>
+        <v>2222</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Klg</t>
+          <t>dsada</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RostovSkiRaen</t>
+          <t>sdasdsada</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3000</v>
+        <v>2221</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10:28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,23 +567,116 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>dsadasd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sadasda</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dsada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dsadasda</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>dsad</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2222</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>22:13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>asdsadas</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>dsadasd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sadasdas</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Плацкарт</t>
         </is>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Тип билета</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -495,6 +500,9 @@
           <t>Плацкарт</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -526,6 +534,9 @@
           <t>Плацкарт</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -557,6 +568,9 @@
           <t>Плацкарт</t>
         </is>
       </c>
+      <c r="H4" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -588,6 +602,9 @@
           <t>Плацкарт</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -619,6 +636,9 @@
           <t>Плацкарт</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -650,6 +670,9 @@
           <t>Плацкарт</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,6 +703,77 @@
         <is>
           <t>Плацкарт</t>
         </is>
+      </c>
+      <c r="H8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kaluga</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>peremishl</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7:0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Minsk</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cheboksary</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20:0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,24 +475,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dsada</t>
+          <t>Киров</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dsada</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>333</v>
+        <v>3000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0:0</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -501,279 +501,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dsada</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sdasdsada</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2222</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dsada</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>sdasdsada</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2221</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dsadasd</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>sadasda</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>dsada</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>dsadasda</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>dsad</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>asdsadas</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>dsadasd</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sadasdas</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2001</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>kaluga</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>peremishl</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>300</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7:0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Minsk</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Cheboksary</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>20:0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,211 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Калуга</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>600</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1:7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Калуга</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>700</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Хабаровск</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Хабаровск</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3:2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Владивосток</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3700</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3:3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0:0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Плацкарт</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,20 +479,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Киров</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
       <c r="E2" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -501,211 +501,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Калуга</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>600</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1:7</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Калуга</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>700</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Хабаровск</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Хабаровск</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3:2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Владивосток</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>3700</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3:3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0:0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Плацкарт</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/tickets.xlsx
+++ b/backend/data/tickets.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
